--- a/Results/xlsx/RS230012BOS01.xlsx
+++ b/Results/xlsx/RS230012BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,7 +1693,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11292</t>
+          <t xml:space="preserve">      12159</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11293</t>
+          <t xml:space="preserve">      12160</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1775,19 +1775,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11375</t>
+          <t xml:space="preserve">      12233</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11376</t>
+          <t xml:space="preserve">      12234</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1869,19 +1869,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11455</t>
+          <t xml:space="preserve">      12313</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11456</t>
+          <t xml:space="preserve">      12314</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11547</t>
+          <t xml:space="preserve">      12389</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2010,19 +2010,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11548</t>
+          <t xml:space="preserve">      12390</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11627</t>
+          <t xml:space="preserve">      12469</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2104,19 +2104,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11628</t>
+          <t xml:space="preserve">      12470</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      11909</t>
+          <t xml:space="preserve">      12572</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,64 +2198,1004 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t xml:space="preserve">      12573</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12680</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12681</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11292</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11293</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11375</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11376</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11455</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11456</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11547</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11548</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11627</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11628</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12531</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12532</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      11909</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t xml:space="preserve">      11910</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-22</t>
         </is>
       </c>
     </row>
-    <row r="40"/>
-    <row r="41"/>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12639</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12640</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12727</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      12728</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
